--- a/NTDS_Utrecht.xlsx
+++ b/NTDS_Utrecht.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8400" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="9600" windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="70">
   <si>
     <t>Breiten</t>
   </si>
@@ -198,6 +198,42 @@
   </si>
   <si>
     <t>swen@gmail.com</t>
+  </si>
+  <si>
+    <t>marloes@gmail.com</t>
+  </si>
+  <si>
+    <t>Bibi</t>
+  </si>
+  <si>
+    <t>karin@gmail.com</t>
+  </si>
+  <si>
+    <t>Berit</t>
+  </si>
+  <si>
+    <t>jasper@gmail.com</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>ilona@gmail.com</t>
+  </si>
+  <si>
+    <t>Esther</t>
+  </si>
+  <si>
+    <t>harm@gmail.com</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>gydeon@gmail.com</t>
+  </si>
+  <si>
+    <t>Bjorn</t>
   </si>
 </sst>
 </file>
@@ -563,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,6 +1161,144 @@
       </c>
       <c r="I21" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1149,6 +1323,12 @@
     <hyperlink ref="C19" r:id="rId18"/>
     <hyperlink ref="C20" r:id="rId19"/>
     <hyperlink ref="C21" r:id="rId20"/>
+    <hyperlink ref="C24" r:id="rId21"/>
+    <hyperlink ref="C25" r:id="rId22"/>
+    <hyperlink ref="C26" r:id="rId23"/>
+    <hyperlink ref="C27" r:id="rId24"/>
+    <hyperlink ref="C23" r:id="rId25"/>
+    <hyperlink ref="C22" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NTDS_Utrecht.xlsx
+++ b/NTDS_Utrecht.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9600" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="10200" windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -602,7 +602,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/NTDS_Utrecht.xlsx
+++ b/NTDS_Utrecht.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10200" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="10800" windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="123">
   <si>
     <t>Breiten</t>
   </si>
@@ -234,6 +234,165 @@
   </si>
   <si>
     <t>Bjorn</t>
+  </si>
+  <si>
+    <t>UTR 1</t>
+  </si>
+  <si>
+    <t>UTR 2</t>
+  </si>
+  <si>
+    <t>UTR 3</t>
+  </si>
+  <si>
+    <t>utrecht@gmail.com</t>
+  </si>
+  <si>
+    <t>UTR 4</t>
+  </si>
+  <si>
+    <t>UTR 5</t>
+  </si>
+  <si>
+    <t>UTR 6</t>
+  </si>
+  <si>
+    <t>UTR 7</t>
+  </si>
+  <si>
+    <t>UTR 8</t>
+  </si>
+  <si>
+    <t>UTR 9</t>
+  </si>
+  <si>
+    <t>UTR 10</t>
+  </si>
+  <si>
+    <t>UTR 11</t>
+  </si>
+  <si>
+    <t>UTR 12</t>
+  </si>
+  <si>
+    <t>UTR 13</t>
+  </si>
+  <si>
+    <t>UTR 14</t>
+  </si>
+  <si>
+    <t>UTR 15</t>
+  </si>
+  <si>
+    <t>UTR 16</t>
+  </si>
+  <si>
+    <t>UTR 17</t>
+  </si>
+  <si>
+    <t>UTR 18</t>
+  </si>
+  <si>
+    <t>UTR 19</t>
+  </si>
+  <si>
+    <t>UTR 20</t>
+  </si>
+  <si>
+    <t>UTR 21</t>
+  </si>
+  <si>
+    <t>UTR 22</t>
+  </si>
+  <si>
+    <t>UTR 23</t>
+  </si>
+  <si>
+    <t>UTR 24</t>
+  </si>
+  <si>
+    <t>UTR 25</t>
+  </si>
+  <si>
+    <t>UTR 26</t>
+  </si>
+  <si>
+    <t>UTR 27</t>
+  </si>
+  <si>
+    <t>UTR 28</t>
+  </si>
+  <si>
+    <t>UTR 29</t>
+  </si>
+  <si>
+    <t>UTR 30</t>
+  </si>
+  <si>
+    <t>UTR 31</t>
+  </si>
+  <si>
+    <t>UTR 32</t>
+  </si>
+  <si>
+    <t>UTR 33</t>
+  </si>
+  <si>
+    <t>UTR 34</t>
+  </si>
+  <si>
+    <t>UTR 35</t>
+  </si>
+  <si>
+    <t>UTR 36</t>
+  </si>
+  <si>
+    <t>UTR 37</t>
+  </si>
+  <si>
+    <t>UTR 38</t>
+  </si>
+  <si>
+    <t>UTR 39</t>
+  </si>
+  <si>
+    <t>UTR 40</t>
+  </si>
+  <si>
+    <t>UTR 41</t>
+  </si>
+  <si>
+    <t>UTR 42</t>
+  </si>
+  <si>
+    <t>UTR 43</t>
+  </si>
+  <si>
+    <t>UTR 44</t>
+  </si>
+  <si>
+    <t>UTR 45</t>
+  </si>
+  <si>
+    <t>UTR 46</t>
+  </si>
+  <si>
+    <t>UTR 47</t>
+  </si>
+  <si>
+    <t>UTR 48</t>
+  </si>
+  <si>
+    <t>UTR 49</t>
+  </si>
+  <si>
+    <t>UTR 50</t>
+  </si>
+  <si>
+    <t>UTR 51</t>
+  </si>
+  <si>
+    <t>UTR 52</t>
   </si>
 </sst>
 </file>
@@ -599,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,6 +1458,1202 @@
       </c>
       <c r="I27" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>106</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D67" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H67" t="s">
+        <v>11</v>
+      </c>
+      <c r="I67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
+        <v>11</v>
+      </c>
+      <c r="I68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>113</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>11</v>
+      </c>
+      <c r="I71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>115</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>0</v>
+      </c>
+      <c r="H72" t="s">
+        <v>11</v>
+      </c>
+      <c r="I72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>0</v>
+      </c>
+      <c r="H73" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>117</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>118</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>119</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D76" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>0</v>
+      </c>
+      <c r="H76" t="s">
+        <v>11</v>
+      </c>
+      <c r="I76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>0</v>
+      </c>
+      <c r="H77" t="s">
+        <v>11</v>
+      </c>
+      <c r="I77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>121</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>0</v>
+      </c>
+      <c r="H78" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>122</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>0</v>
+      </c>
+      <c r="H79" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1329,6 +2684,41 @@
     <hyperlink ref="C27" r:id="rId24"/>
     <hyperlink ref="C23" r:id="rId25"/>
     <hyperlink ref="C22" r:id="rId26"/>
+    <hyperlink ref="C28" r:id="rId27"/>
+    <hyperlink ref="C29:C30" r:id="rId28" display="utrecht@gmail.com"/>
+    <hyperlink ref="C31" r:id="rId29"/>
+    <hyperlink ref="C34" r:id="rId30"/>
+    <hyperlink ref="C37" r:id="rId31"/>
+    <hyperlink ref="C40" r:id="rId32"/>
+    <hyperlink ref="C43" r:id="rId33"/>
+    <hyperlink ref="C46" r:id="rId34"/>
+    <hyperlink ref="C49" r:id="rId35"/>
+    <hyperlink ref="C52" r:id="rId36"/>
+    <hyperlink ref="C55" r:id="rId37"/>
+    <hyperlink ref="C58" r:id="rId38"/>
+    <hyperlink ref="C61" r:id="rId39"/>
+    <hyperlink ref="C64" r:id="rId40"/>
+    <hyperlink ref="C67" r:id="rId41"/>
+    <hyperlink ref="C70" r:id="rId42"/>
+    <hyperlink ref="C73" r:id="rId43"/>
+    <hyperlink ref="C76" r:id="rId44"/>
+    <hyperlink ref="C79" r:id="rId45"/>
+    <hyperlink ref="C32:C33" r:id="rId46" display="utrecht@gmail.com"/>
+    <hyperlink ref="C35:C36" r:id="rId47" display="utrecht@gmail.com"/>
+    <hyperlink ref="C38:C39" r:id="rId48" display="utrecht@gmail.com"/>
+    <hyperlink ref="C41:C42" r:id="rId49" display="utrecht@gmail.com"/>
+    <hyperlink ref="C44:C45" r:id="rId50" display="utrecht@gmail.com"/>
+    <hyperlink ref="C47:C48" r:id="rId51" display="utrecht@gmail.com"/>
+    <hyperlink ref="C50:C51" r:id="rId52" display="utrecht@gmail.com"/>
+    <hyperlink ref="C53:C54" r:id="rId53" display="utrecht@gmail.com"/>
+    <hyperlink ref="C56:C57" r:id="rId54" display="utrecht@gmail.com"/>
+    <hyperlink ref="C59:C60" r:id="rId55" display="utrecht@gmail.com"/>
+    <hyperlink ref="C62:C63" r:id="rId56" display="utrecht@gmail.com"/>
+    <hyperlink ref="C65:C66" r:id="rId57" display="utrecht@gmail.com"/>
+    <hyperlink ref="C68:C69" r:id="rId58" display="utrecht@gmail.com"/>
+    <hyperlink ref="C71:C72" r:id="rId59" display="utrecht@gmail.com"/>
+    <hyperlink ref="C74:C75" r:id="rId60" display="utrecht@gmail.com"/>
+    <hyperlink ref="C77:C78" r:id="rId61" display="utrecht@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NTDS_Utrecht.xlsx
+++ b/NTDS_Utrecht.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10800" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="11400" windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="128">
   <si>
     <t>Breiten</t>
   </si>
@@ -393,6 +393,21 @@
   </si>
   <si>
     <t>UTR 52</t>
+  </si>
+  <si>
+    <t>EHBO</t>
+  </si>
+  <si>
+    <t>Wil jureren</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Slaapplek</t>
+  </si>
+  <si>
+    <t>Allergiën/dieet</t>
   </si>
 </sst>
 </file>
@@ -758,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,9 +786,13 @@
     <col min="4" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="9" width="13.7109375" customWidth="1"/>
     <col min="10" max="11" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -810,8 +829,23 @@
       <c r="L1" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -843,7 +877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -872,7 +906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -901,7 +935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -927,7 +961,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -950,7 +984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -973,7 +1007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -999,7 +1033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1022,7 +1056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1045,7 +1079,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1074,7 +1108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1103,7 +1137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1126,7 +1160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1149,7 +1183,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1172,7 +1206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>

--- a/NTDS_Utrecht.xlsx
+++ b/NTDS_Utrecht.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15600" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="19200" windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1323,7 +1323,7 @@
   <dimension ref="A1:W91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2502,10 +2502,10 @@
         <v>2</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>

--- a/NTDS_Utrecht.xlsx
+++ b/NTDS_Utrecht.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="19200" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="19800" windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="311">
   <si>
-    <t>Breiten</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
     <t>Nummer</t>
   </si>
   <si>
@@ -62,9 +56,6 @@
     <t>Team-captain</t>
   </si>
   <si>
-    <t>Beginner</t>
-  </si>
-  <si>
     <t>EHBO</t>
   </si>
   <si>
@@ -957,6 +948,15 @@
   </si>
   <si>
     <t>Brering</t>
+  </si>
+  <si>
+    <t>Breitensport</t>
+  </si>
+  <si>
+    <t>Beginners</t>
+  </si>
+  <si>
+    <t>Open Class</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1323,7 @@
   <dimension ref="A1:W91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,7 +1333,8 @@
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
@@ -1353,73 +1354,73 @@
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -1427,44 +1428,44 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -1472,22 +1473,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H3" s="2">
         <v>24</v>
@@ -1496,10 +1497,10 @@
         <v>24</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1507,11 +1508,11 @@
       <c r="Q3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -1519,42 +1520,42 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="O4" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U4" s="2"/>
       <c r="V4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -1562,20 +1563,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H5" s="2">
         <v>8</v>
@@ -1584,24 +1585,24 @@
         <v>8</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="O5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="S5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -1609,48 +1610,48 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H6" s="2">
         <v>13</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="S6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -1658,20 +1659,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H7" s="2">
         <v>46</v>
@@ -1680,24 +1681,24 @@
         <v>46</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="O7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="S7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U7" s="2"/>
       <c r="V7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -1705,20 +1706,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H8" s="2">
         <v>21</v>
@@ -1727,20 +1728,20 @@
         <v>21</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="O8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="S8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
@@ -1750,20 +1751,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H9" s="2">
         <v>4</v>
@@ -1772,20 +1773,20 @@
         <v>4</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="O9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="S9" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
@@ -1795,44 +1796,44 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="O10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="S10" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -1840,39 +1841,39 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="O11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="S11" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="V11" s="2"/>
     </row>
@@ -1881,20 +1882,20 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H12" s="2">
         <v>52</v>
@@ -1903,24 +1904,24 @@
         <v>52</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="O12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="S12" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U12" s="2"/>
       <c r="V12" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -1928,20 +1929,20 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H13" s="2">
         <v>25</v>
@@ -1950,26 +1951,26 @@
         <v>25</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="O13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="S13" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -1977,46 +1978,46 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="H14" s="2">
         <v>5</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="O14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="S14" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U14" s="2"/>
       <c r="V14" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -2024,20 +2025,20 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H15" s="2">
         <v>40</v>
@@ -2046,10 +2047,10 @@
         <v>40</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -2057,7 +2058,7 @@
       <c r="Q15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
@@ -2067,42 +2068,42 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="O16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="S16" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U16" s="2"/>
       <c r="V16" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -2110,22 +2111,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H17" s="2">
         <v>37</v>
@@ -2134,20 +2135,20 @@
         <v>37</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="O17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="S17" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
@@ -2157,46 +2158,46 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="S18" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U18" s="2"/>
       <c r="V18" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -2204,20 +2205,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H19" s="2">
         <v>27</v>
@@ -2226,20 +2227,20 @@
         <v>27</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="O19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="S19" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
@@ -2249,20 +2250,20 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="H20" s="2">
         <v>35</v>
@@ -2271,10 +2272,10 @@
         <v>35</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -2282,7 +2283,7 @@
       <c r="Q20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
@@ -2292,22 +2293,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="H21" s="2">
         <v>30</v>
@@ -2316,23 +2317,23 @@
         <v>30</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="O21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="S21" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="V21" s="2"/>
     </row>
@@ -2341,20 +2342,20 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H22" s="2">
         <v>7</v>
@@ -2363,21 +2364,21 @@
         <v>7</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="O22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="S22" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T22" s="2"/>
       <c r="U22" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="V22" s="2"/>
     </row>
@@ -2386,20 +2387,20 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H23" s="2">
         <v>57</v>
@@ -2408,21 +2409,21 @@
         <v>57</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="O23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="S23" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T23" s="2"/>
       <c r="U23" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="V23" s="2"/>
     </row>
@@ -2431,20 +2432,20 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H24" s="2">
         <v>55</v>
@@ -2453,24 +2454,24 @@
         <v>55</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="O24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="S24" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U24" s="2"/>
       <c r="V24" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -2478,22 +2479,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H25" s="2">
         <v>2</v>
@@ -2502,24 +2503,24 @@
         <v>2</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="O25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="S25" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U25" s="2"/>
       <c r="V25" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -2527,20 +2528,20 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H26" s="2">
         <v>12</v>
@@ -2549,24 +2550,24 @@
         <v>12</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="O26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="S26" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U26" s="2"/>
       <c r="V26" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
@@ -2574,22 +2575,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H27" s="2">
         <v>42</v>
@@ -2598,21 +2599,21 @@
         <v>42</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="O27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="S27" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T27" s="2"/>
       <c r="U27" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="V27" s="2"/>
     </row>
@@ -2621,20 +2622,20 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H28" s="2">
         <v>18</v>
@@ -2643,20 +2644,20 @@
         <v>18</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="O28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="S28" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
@@ -2666,45 +2667,45 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="O29" s="2"/>
       <c r="Q29" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S29" s="2"/>
       <c r="T29" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U29" s="2"/>
       <c r="V29" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
@@ -2712,49 +2713,49 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O30" s="2"/>
       <c r="Q30" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S30" s="2"/>
       <c r="T30" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U30" s="2"/>
       <c r="V30" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
@@ -2762,22 +2763,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="H31" s="2">
         <v>20</v>
@@ -2786,24 +2787,24 @@
         <v>20</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="O31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="S31" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U31" s="2"/>
       <c r="V31" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -2811,28 +2812,28 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -2840,11 +2841,11 @@
       <c r="Q32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U32" s="2"/>
       <c r="V32" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
@@ -2852,44 +2853,44 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="S33" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
@@ -2899,42 +2900,42 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="O34" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U34" s="2"/>
       <c r="V34" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
@@ -2942,46 +2943,46 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="O35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="S35" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
@@ -2989,20 +2990,20 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="H36" s="2">
         <v>19</v>
@@ -3011,26 +3012,26 @@
         <v>19</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="O36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="S36" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
@@ -3038,20 +3039,20 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H37" s="2">
         <v>41</v>
@@ -3060,20 +3061,20 @@
         <v>41</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="O37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="S37" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
@@ -3083,20 +3084,20 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H38" s="2">
         <v>16</v>
@@ -3105,20 +3106,20 @@
         <v>16</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="O38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="S38" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
@@ -3128,22 +3129,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H39" s="3">
         <v>87</v>
@@ -3152,20 +3153,20 @@
         <v>87</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="O39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="S39" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
@@ -3175,40 +3176,40 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
@@ -3218,20 +3219,20 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H41" s="2">
         <v>14</v>
@@ -3240,10 +3241,10 @@
         <v>14</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
@@ -3251,13 +3252,13 @@
       <c r="Q41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
@@ -3265,22 +3266,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H42" s="2">
         <v>36</v>
@@ -3289,20 +3290,20 @@
         <v>36</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="O42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="S42" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
@@ -3312,22 +3313,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H43" s="2">
         <v>26</v>
@@ -3336,20 +3337,20 @@
         <v>26</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="O43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="S43" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
@@ -3359,44 +3360,44 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="S44" s="2"/>
       <c r="T44" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U44" s="2"/>
       <c r="V44" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
@@ -3404,20 +3405,20 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H45" s="2">
         <v>47</v>
@@ -3426,26 +3427,26 @@
         <v>47</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="O45" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="S45" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U45" s="2"/>
       <c r="V45" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
@@ -3453,20 +3454,20 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H46" s="2">
         <v>67</v>
@@ -3475,24 +3476,24 @@
         <v>67</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="O46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="S46" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U46" s="2"/>
       <c r="V46" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
@@ -3500,20 +3501,20 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H47" s="2">
         <v>6</v>
@@ -3522,10 +3523,10 @@
         <v>6</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -3541,20 +3542,20 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H48" s="2">
         <v>44</v>
@@ -3563,10 +3564,10 @@
         <v>44</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
@@ -3574,11 +3575,11 @@
       <c r="Q48" s="2"/>
       <c r="S48" s="2"/>
       <c r="T48" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U48" s="2"/>
       <c r="V48" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
@@ -3586,28 +3587,28 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -3615,11 +3616,11 @@
       <c r="Q49" s="2"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U49" s="2"/>
       <c r="V49" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
@@ -3627,40 +3628,40 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="O50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="S50" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
@@ -3670,39 +3671,39 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="O51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S51" s="2"/>
       <c r="T51" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
@@ -3712,43 +3713,43 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="S52" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T52" s="2"/>
       <c r="U52" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="V52" s="2"/>
     </row>
@@ -3757,22 +3758,22 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H53" s="2">
         <v>11</v>
@@ -3781,10 +3782,10 @@
         <v>11</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
@@ -3792,11 +3793,11 @@
       <c r="Q53" s="2"/>
       <c r="S53" s="2"/>
       <c r="T53" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U53" s="2"/>
       <c r="V53" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
@@ -3804,22 +3805,22 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H54" s="2">
         <v>54</v>
@@ -3828,24 +3829,24 @@
         <v>54</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
       <c r="O54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="S54" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U54" s="2"/>
       <c r="V54" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
@@ -3853,20 +3854,20 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H55" s="2">
         <v>53</v>
@@ -3875,26 +3876,26 @@
         <v>53</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
       <c r="O55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="S55" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
@@ -3902,20 +3903,20 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H56" s="2">
         <v>23</v>
@@ -3924,26 +3925,26 @@
         <v>23</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
       <c r="O56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="S56" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
@@ -3951,28 +3952,28 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
@@ -3988,20 +3989,20 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H58" s="2">
         <v>22</v>
@@ -4010,10 +4011,10 @@
         <v>22</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -4021,11 +4022,11 @@
       <c r="Q58" s="2"/>
       <c r="S58" s="2"/>
       <c r="T58" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U58" s="2"/>
       <c r="V58" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
@@ -4033,20 +4034,20 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H59" s="2">
         <v>72</v>
@@ -4055,24 +4056,24 @@
         <v>72</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
       <c r="O59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="S59" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U59" s="2"/>
       <c r="V59" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
@@ -4080,51 +4081,51 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O60" s="2"/>
       <c r="Q60" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R60" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U60" s="2"/>
       <c r="V60" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
@@ -4132,46 +4133,46 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
       <c r="O61" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="S61" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U61" s="2"/>
       <c r="V61" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
@@ -4179,48 +4180,48 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O62" s="2"/>
       <c r="Q62" s="2"/>
       <c r="S62" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="V62" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
@@ -4228,44 +4229,44 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
       <c r="O63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="S63" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U63" s="2"/>
       <c r="V63" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
@@ -4273,20 +4274,20 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H64" s="2">
         <v>80</v>
@@ -4295,10 +4296,10 @@
         <v>80</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -4306,11 +4307,11 @@
       <c r="Q64" s="2"/>
       <c r="S64" s="2"/>
       <c r="T64" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U64" s="2"/>
       <c r="V64" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
@@ -4318,22 +4319,22 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K65" s="3"/>
       <c r="L65" s="2"/>
@@ -4350,53 +4351,53 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R66" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U66" s="2"/>
       <c r="V66" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
@@ -4404,20 +4405,20 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H67" s="2">
         <v>74</v>
@@ -4426,10 +4427,10 @@
         <v>74</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
@@ -4445,22 +4446,22 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H68" s="2">
         <v>45</v>
@@ -4469,23 +4470,23 @@
         <v>45</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
       <c r="O68" s="2"/>
       <c r="Q68" s="2"/>
       <c r="S68" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U68" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="V68" s="2"/>
     </row>
@@ -4494,22 +4495,22 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H69" s="2">
         <v>73</v>
@@ -4518,10 +4519,10 @@
         <v>73</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
@@ -4529,11 +4530,11 @@
       <c r="Q69" s="2"/>
       <c r="S69" s="2"/>
       <c r="T69" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U69" s="2"/>
       <c r="V69" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
@@ -4541,45 +4542,45 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O70" s="2"/>
       <c r="Q70" s="2"/>
       <c r="S70" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U70" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="V70" s="2"/>
     </row>
@@ -4588,22 +4589,22 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="H71" s="2">
         <v>79</v>
@@ -4612,17 +4613,17 @@
         <v>79</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L71" s="2"/>
       <c r="O71" s="2"/>
       <c r="Q71" s="2"/>
       <c r="S71" s="2"/>
       <c r="T71" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U71" s="2"/>
       <c r="V71" s="2"/>
@@ -4632,40 +4633,40 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2" t="s">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O72" s="2"/>
       <c r="Q72" s="2"/>
       <c r="R72" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S72" s="2"/>
       <c r="T72" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U72" s="2"/>
       <c r="V72" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
@@ -4673,20 +4674,20 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H73" s="2">
         <v>58</v>
@@ -4695,25 +4696,25 @@
         <v>58</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L73" s="2"/>
       <c r="O73" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q73" s="2"/>
       <c r="S73" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U73" s="2"/>
       <c r="V73" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
@@ -4721,20 +4722,20 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H74" s="2">
         <v>68</v>
@@ -4743,21 +4744,21 @@
         <v>68</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L74" s="2"/>
       <c r="O74" s="2"/>
       <c r="Q74" s="2"/>
       <c r="S74" s="2"/>
       <c r="T74" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U74" s="2"/>
       <c r="V74" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
@@ -4765,22 +4766,22 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H75" s="2">
         <v>66</v>
@@ -4789,16 +4790,16 @@
         <v>66</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L75" s="2"/>
       <c r="O75" s="2"/>
       <c r="Q75" s="2"/>
       <c r="S75" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
@@ -4809,43 +4810,43 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L76" s="2"/>
       <c r="O76" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q76" s="2"/>
       <c r="S76" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T76" s="2"/>
       <c r="U76" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="V76" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
@@ -4853,20 +4854,20 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H77" s="2">
         <v>82</v>
@@ -4875,16 +4876,16 @@
         <v>82</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L77" s="2"/>
       <c r="O77" s="2"/>
       <c r="Q77" s="2"/>
       <c r="S77" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
@@ -4895,20 +4896,20 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="H78" s="2">
         <v>84</v>
@@ -4917,23 +4918,23 @@
         <v>84</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L78" s="2"/>
       <c r="O78" s="2"/>
       <c r="Q78" s="2"/>
       <c r="S78" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U78" s="2"/>
       <c r="V78" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
@@ -4941,20 +4942,20 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="H79" s="2">
         <v>83</v>
@@ -4963,23 +4964,23 @@
         <v>83</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L79" s="2"/>
       <c r="O79" s="2"/>
       <c r="Q79" s="2"/>
       <c r="S79" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U79" s="2"/>
       <c r="V79" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
@@ -4987,20 +4988,20 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="H80" s="2">
         <v>70</v>
@@ -5009,17 +5010,17 @@
         <v>70</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L80" s="2"/>
       <c r="O80" s="2"/>
       <c r="Q80" s="2"/>
       <c r="S80" s="2"/>
       <c r="T80" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U80" s="2"/>
       <c r="V80" s="2"/>
@@ -5029,20 +5030,20 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H81" s="2">
         <v>63</v>
@@ -5051,23 +5052,23 @@
         <v>63</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L81" s="2"/>
       <c r="O81" s="2"/>
       <c r="Q81" s="2"/>
       <c r="S81" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T81" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U81" s="2"/>
       <c r="V81" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
@@ -5075,41 +5076,41 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L82" s="2"/>
       <c r="O82" s="2"/>
       <c r="Q82" s="2"/>
       <c r="S82" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U82" s="2"/>
       <c r="V82" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
@@ -5117,22 +5118,22 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H83" s="2">
         <v>76</v>
@@ -5141,20 +5142,20 @@
         <v>76</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L83" s="2"/>
       <c r="O83" s="2"/>
       <c r="Q83" s="2"/>
       <c r="S83" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T83" s="2"/>
       <c r="U83" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="V83" s="2"/>
     </row>
@@ -5163,20 +5164,20 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="H84" s="2">
         <v>78</v>
@@ -5185,20 +5186,20 @@
         <v>78</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L84" s="2"/>
       <c r="O84" s="2"/>
       <c r="Q84" s="2"/>
       <c r="S84" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T84" s="2"/>
       <c r="U84" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="V84" s="2"/>
     </row>
@@ -5207,20 +5208,20 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="H85" s="2">
         <v>77</v>
@@ -5229,19 +5230,19 @@
         <v>77</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L85" s="2"/>
       <c r="O85" s="2"/>
       <c r="Q85" s="2"/>
       <c r="S85" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T85" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U85" s="2"/>
       <c r="V85" s="2"/>
@@ -5251,48 +5252,48 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O86" s="2"/>
       <c r="Q86" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T86" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U86" s="2"/>
       <c r="V86" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
@@ -5300,23 +5301,23 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K87" s="3"/>
       <c r="L87" s="2"/>
@@ -5325,7 +5326,7 @@
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
       <c r="U87" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="V87" s="2"/>
     </row>
@@ -5334,20 +5335,20 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H88" s="2">
         <v>38</v>
@@ -5356,23 +5357,23 @@
         <v>38</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L88" s="2"/>
       <c r="O88" s="2"/>
       <c r="Q88" s="2"/>
       <c r="S88" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T88" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U88" s="2"/>
       <c r="V88" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
@@ -5380,44 +5381,44 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L89" s="2"/>
       <c r="N89" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O89" s="2"/>
       <c r="Q89" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R89" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
       <c r="U89" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="V89" s="2"/>
     </row>
@@ -5426,38 +5427,38 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L90" s="2"/>
       <c r="O90" s="2"/>
       <c r="Q90" s="2"/>
       <c r="S90" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T90" s="2"/>
       <c r="U90" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="V90" s="2"/>
     </row>
@@ -5466,41 +5467,41 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L91" s="3"/>
       <c r="O91" s="2"/>
       <c r="Q91" s="2"/>
       <c r="S91" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T91" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U91" s="2"/>
       <c r="V91" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/NTDS_Utrecht.xlsx
+++ b/NTDS_Utrecht.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="20400" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="21600" windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="311">
   <si>
     <t>E-mail</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Ja</t>
   </si>
   <si>
-    <t>Team-captain</t>
-  </si>
-  <si>
     <t>EHBO</t>
   </si>
   <si>
@@ -950,16 +947,16 @@
     <t>Jury Latin</t>
   </si>
   <si>
-    <t>Allergiën / dieet</t>
-  </si>
-  <si>
     <t>Wil je vrijwilliger zijn voor dit NTDS?</t>
   </si>
   <si>
     <t>Ben je op een eerder ETDS of NTDS vrijwilliger geweest?</t>
   </si>
   <si>
-    <t>Doe je mee aan de Same Seks wedstrijd?</t>
+    <t>Teamcaptain</t>
+  </si>
+  <si>
+    <t>Allergiën / Dieet</t>
   </si>
 </sst>
 </file>
@@ -1323,10 +1320,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X91"/>
+  <dimension ref="A1:W91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,18 +1352,18 @@
     <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -1378,16 +1375,16 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>305</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
@@ -1396,66 +1393,63 @@
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>5</v>
@@ -1471,30 +1465,30 @@
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H3" s="2">
         <v>24</v>
@@ -1503,10 +1497,10 @@
         <v>24</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1518,41 +1512,41 @@
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="O4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="S4" s="2"/>
@@ -1564,25 +1558,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H5" s="2">
         <v>8</v>
@@ -1591,10 +1585,10 @@
         <v>8</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1608,38 +1602,38 @@
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H6" s="2">
         <v>13</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>5</v>
@@ -1657,28 +1651,28 @@
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H7" s="2">
         <v>46</v>
@@ -1687,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1707,25 +1701,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H8" s="2">
         <v>21</v>
@@ -1734,10 +1728,10 @@
         <v>21</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1752,25 +1746,25 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H9" s="2">
         <v>4</v>
@@ -1779,10 +1773,10 @@
         <v>4</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1797,33 +1791,33 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1836,39 +1830,39 @@
         <v>5</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1879,29 +1873,29 @@
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H12" s="2">
         <v>52</v>
@@ -1910,10 +1904,10 @@
         <v>52</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1927,28 +1921,28 @@
       </c>
       <c r="U12" s="2"/>
       <c r="V12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H13" s="2">
         <v>25</v>
@@ -1957,10 +1951,10 @@
         <v>25</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1973,43 +1967,43 @@
         <v>5</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H14" s="2">
         <v>5</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -2023,28 +2017,28 @@
       </c>
       <c r="U14" s="2"/>
       <c r="V14" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H15" s="2">
         <v>40</v>
@@ -2053,10 +2047,10 @@
         <v>40</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -2069,33 +2063,33 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -2109,7 +2103,7 @@
       </c>
       <c r="U16" s="2"/>
       <c r="V16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -2117,22 +2111,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H17" s="2">
         <v>37</v>
@@ -2141,10 +2135,10 @@
         <v>37</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -2164,28 +2158,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>5</v>
@@ -2203,7 +2197,7 @@
       </c>
       <c r="U18" s="2"/>
       <c r="V18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -2211,20 +2205,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H19" s="2">
         <v>27</v>
@@ -2233,10 +2227,10 @@
         <v>27</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -2256,20 +2250,20 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H20" s="2">
         <v>35</v>
@@ -2278,10 +2272,10 @@
         <v>35</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -2299,22 +2293,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H21" s="2">
         <v>30</v>
@@ -2323,10 +2317,10 @@
         <v>30</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -2339,7 +2333,7 @@
         <v>5</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="V21" s="2"/>
     </row>
@@ -2348,20 +2342,20 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H22" s="2">
         <v>7</v>
@@ -2370,10 +2364,10 @@
         <v>7</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -2384,7 +2378,7 @@
       </c>
       <c r="T22" s="2"/>
       <c r="U22" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V22" s="2"/>
     </row>
@@ -2393,20 +2387,20 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H23" s="2">
         <v>57</v>
@@ -2415,10 +2409,10 @@
         <v>57</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -2429,7 +2423,7 @@
       </c>
       <c r="T23" s="2"/>
       <c r="U23" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V23" s="2"/>
     </row>
@@ -2438,20 +2432,20 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H24" s="2">
         <v>55</v>
@@ -2460,10 +2454,10 @@
         <v>55</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -2477,7 +2471,7 @@
       </c>
       <c r="U24" s="2"/>
       <c r="V24" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -2485,22 +2479,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H25" s="2">
         <v>2</v>
@@ -2509,10 +2503,10 @@
         <v>2</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -2526,7 +2520,7 @@
       </c>
       <c r="U25" s="2"/>
       <c r="V25" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -2534,20 +2528,20 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H26" s="2">
         <v>12</v>
@@ -2556,10 +2550,10 @@
         <v>12</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -2573,7 +2567,7 @@
       </c>
       <c r="U26" s="2"/>
       <c r="V26" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
@@ -2581,22 +2575,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="E27" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H27" s="2">
         <v>42</v>
@@ -2605,10 +2599,10 @@
         <v>42</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -2619,7 +2613,7 @@
       </c>
       <c r="T27" s="2"/>
       <c r="U27" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V27" s="2"/>
     </row>
@@ -2628,20 +2622,20 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H28" s="2">
         <v>18</v>
@@ -2650,10 +2644,10 @@
         <v>18</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -2673,28 +2667,28 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -2719,28 +2713,28 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>5</v>
@@ -2761,7 +2755,7 @@
       </c>
       <c r="U30" s="2"/>
       <c r="V30" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
@@ -2769,22 +2763,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E31" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H31" s="2">
         <v>20</v>
@@ -2793,10 +2787,10 @@
         <v>20</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -2810,7 +2804,7 @@
       </c>
       <c r="U31" s="2"/>
       <c r="V31" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -2818,28 +2812,28 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -2859,30 +2853,30 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>5</v>
@@ -2906,28 +2900,28 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -2941,7 +2935,7 @@
       </c>
       <c r="U34" s="2"/>
       <c r="V34" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
@@ -2949,30 +2943,30 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -2985,10 +2979,10 @@
         <v>5</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
@@ -2996,20 +2990,20 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H36" s="2">
         <v>19</v>
@@ -3018,10 +3012,10 @@
         <v>19</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -3034,10 +3028,10 @@
         <v>5</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
@@ -3045,20 +3039,20 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H37" s="2">
         <v>41</v>
@@ -3067,10 +3061,10 @@
         <v>41</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -3090,20 +3084,20 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H38" s="2">
         <v>16</v>
@@ -3112,10 +3106,10 @@
         <v>16</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -3135,22 +3129,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H39" s="3">
         <v>87</v>
@@ -3159,10 +3153,10 @@
         <v>87</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -3182,28 +3176,28 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>5</v>
@@ -3225,20 +3219,20 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H41" s="2">
         <v>14</v>
@@ -3247,10 +3241,10 @@
         <v>14</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
@@ -3261,10 +3255,10 @@
         <v>5</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
@@ -3272,22 +3266,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E42" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H42" s="2">
         <v>36</v>
@@ -3296,10 +3290,10 @@
         <v>36</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -3319,22 +3313,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H43" s="2">
         <v>26</v>
@@ -3343,10 +3337,10 @@
         <v>26</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -3366,28 +3360,28 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>5</v>
@@ -3411,20 +3405,20 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H45" s="2">
         <v>47</v>
@@ -3433,15 +3427,15 @@
         <v>47</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="O45" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="S45" s="2" t="s">
@@ -3452,7 +3446,7 @@
       </c>
       <c r="U45" s="2"/>
       <c r="V45" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
@@ -3460,20 +3454,20 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H46" s="2">
         <v>67</v>
@@ -3482,10 +3476,10 @@
         <v>67</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -3499,7 +3493,7 @@
       </c>
       <c r="U46" s="2"/>
       <c r="V46" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
@@ -3507,20 +3501,20 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H47" s="2">
         <v>6</v>
@@ -3529,10 +3523,10 @@
         <v>6</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -3548,20 +3542,20 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H48" s="2">
         <v>44</v>
@@ -3570,10 +3564,10 @@
         <v>44</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
@@ -3585,7 +3579,7 @@
       </c>
       <c r="U48" s="2"/>
       <c r="V48" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
@@ -3593,28 +3587,28 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -3626,7 +3620,7 @@
       </c>
       <c r="U49" s="2"/>
       <c r="V49" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
@@ -3634,30 +3628,30 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E50" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
@@ -3677,28 +3671,28 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
@@ -3719,28 +3713,28 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>5</v>
@@ -3755,7 +3749,7 @@
       </c>
       <c r="T52" s="2"/>
       <c r="U52" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V52" s="2"/>
     </row>
@@ -3764,22 +3758,22 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H53" s="2">
         <v>11</v>
@@ -3788,10 +3782,10 @@
         <v>11</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
@@ -3803,7 +3797,7 @@
       </c>
       <c r="U53" s="2"/>
       <c r="V53" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
@@ -3811,22 +3805,22 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="E54" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H54" s="2">
         <v>54</v>
@@ -3835,10 +3829,10 @@
         <v>54</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
@@ -3852,7 +3846,7 @@
       </c>
       <c r="U54" s="2"/>
       <c r="V54" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
@@ -3860,20 +3854,20 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H55" s="2">
         <v>53</v>
@@ -3882,10 +3876,10 @@
         <v>53</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
@@ -3898,10 +3892,10 @@
         <v>5</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
@@ -3909,20 +3903,20 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H56" s="2">
         <v>23</v>
@@ -3931,10 +3925,10 @@
         <v>23</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -3947,10 +3941,10 @@
         <v>5</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
@@ -3958,28 +3952,28 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
@@ -3995,20 +3989,20 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H58" s="2">
         <v>22</v>
@@ -4017,10 +4011,10 @@
         <v>22</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -4032,7 +4026,7 @@
       </c>
       <c r="U58" s="2"/>
       <c r="V58" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
@@ -4040,20 +4034,20 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H59" s="2">
         <v>72</v>
@@ -4062,10 +4056,10 @@
         <v>72</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
@@ -4079,7 +4073,7 @@
       </c>
       <c r="U59" s="2"/>
       <c r="V59" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
@@ -4087,28 +4081,28 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>5</v>
@@ -4139,30 +4133,30 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="E61" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
@@ -4186,28 +4180,28 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>5</v>
@@ -4224,10 +4218,10 @@
         <v>5</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V62" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
@@ -4235,30 +4229,30 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="E63" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -4272,7 +4266,7 @@
       </c>
       <c r="U63" s="2"/>
       <c r="V63" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
@@ -4280,20 +4274,20 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H64" s="2">
         <v>80</v>
@@ -4302,10 +4296,10 @@
         <v>80</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -4317,7 +4311,7 @@
       </c>
       <c r="U64" s="2"/>
       <c r="V64" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
@@ -4325,22 +4319,22 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K65" s="3"/>
       <c r="L65" s="2"/>
@@ -4357,28 +4351,28 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>5</v>
@@ -4411,20 +4405,20 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H67" s="2">
         <v>74</v>
@@ -4433,10 +4427,10 @@
         <v>74</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
@@ -4452,22 +4446,22 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E68" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H68" s="2">
         <v>45</v>
@@ -4476,10 +4470,10 @@
         <v>45</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
@@ -4492,7 +4486,7 @@
         <v>5</v>
       </c>
       <c r="U68" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="V68" s="2"/>
     </row>
@@ -4501,22 +4495,22 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="E69" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H69" s="2">
         <v>73</v>
@@ -4525,10 +4519,10 @@
         <v>73</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
@@ -4548,28 +4542,28 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>5</v>
@@ -4586,7 +4580,7 @@
         <v>5</v>
       </c>
       <c r="U70" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="V70" s="2"/>
     </row>
@@ -4595,22 +4589,22 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H71" s="2">
         <v>79</v>
@@ -4619,10 +4613,10 @@
         <v>79</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L71" s="2"/>
       <c r="O71" s="2"/>
@@ -4639,24 +4633,24 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M72" s="2" t="s">
         <v>5</v>
@@ -4672,7 +4666,7 @@
       </c>
       <c r="U72" s="2"/>
       <c r="V72" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
@@ -4680,20 +4674,20 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H73" s="2">
         <v>58</v>
@@ -4702,14 +4696,14 @@
         <v>58</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L73" s="2"/>
       <c r="O73" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q73" s="2"/>
       <c r="S73" s="2" t="s">
@@ -4720,7 +4714,7 @@
       </c>
       <c r="U73" s="2"/>
       <c r="V73" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
@@ -4728,20 +4722,20 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H74" s="2">
         <v>68</v>
@@ -4750,10 +4744,10 @@
         <v>68</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L74" s="2"/>
       <c r="O74" s="2"/>
@@ -4764,7 +4758,7 @@
       </c>
       <c r="U74" s="2"/>
       <c r="V74" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
@@ -4772,22 +4766,22 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="E75" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H75" s="2">
         <v>66</v>
@@ -4796,10 +4790,10 @@
         <v>66</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L75" s="2"/>
       <c r="O75" s="2"/>
@@ -4816,32 +4810,32 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L76" s="2"/>
       <c r="O76" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q76" s="2"/>
       <c r="S76" s="2" t="s">
@@ -4849,10 +4843,10 @@
       </c>
       <c r="T76" s="2"/>
       <c r="U76" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="V76" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
@@ -4860,20 +4854,20 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H77" s="2">
         <v>82</v>
@@ -4882,10 +4876,10 @@
         <v>82</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L77" s="2"/>
       <c r="O77" s="2"/>
@@ -4902,20 +4896,20 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H78" s="2">
         <v>84</v>
@@ -4924,10 +4918,10 @@
         <v>84</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L78" s="2"/>
       <c r="O78" s="2"/>
@@ -4948,20 +4942,20 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H79" s="2">
         <v>83</v>
@@ -4970,10 +4964,10 @@
         <v>83</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L79" s="2"/>
       <c r="O79" s="2"/>
@@ -4986,7 +4980,7 @@
       </c>
       <c r="U79" s="2"/>
       <c r="V79" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
@@ -4994,20 +4988,20 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H80" s="2">
         <v>70</v>
@@ -5016,10 +5010,10 @@
         <v>70</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L80" s="2"/>
       <c r="O80" s="2"/>
@@ -5036,20 +5030,20 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H81" s="2">
         <v>63</v>
@@ -5058,10 +5052,10 @@
         <v>63</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L81" s="2"/>
       <c r="O81" s="2"/>
@@ -5074,7 +5068,7 @@
       </c>
       <c r="U81" s="2"/>
       <c r="V81" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
@@ -5082,28 +5076,28 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L82" s="2"/>
       <c r="O82" s="2"/>
@@ -5116,7 +5110,7 @@
       </c>
       <c r="U82" s="2"/>
       <c r="V82" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
@@ -5124,22 +5118,22 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H83" s="2">
         <v>76</v>
@@ -5148,10 +5142,10 @@
         <v>76</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L83" s="2"/>
       <c r="O83" s="2"/>
@@ -5161,7 +5155,7 @@
       </c>
       <c r="T83" s="2"/>
       <c r="U83" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="V83" s="2"/>
     </row>
@@ -5170,20 +5164,20 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H84" s="2">
         <v>78</v>
@@ -5192,10 +5186,10 @@
         <v>78</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L84" s="2"/>
       <c r="O84" s="2"/>
@@ -5205,7 +5199,7 @@
       </c>
       <c r="T84" s="2"/>
       <c r="U84" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V84" s="2"/>
     </row>
@@ -5214,20 +5208,20 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H85" s="2">
         <v>77</v>
@@ -5236,10 +5230,10 @@
         <v>77</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L85" s="2"/>
       <c r="O85" s="2"/>
@@ -5258,28 +5252,28 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>5</v>
@@ -5289,7 +5283,7 @@
       </c>
       <c r="O86" s="2"/>
       <c r="Q86" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S86" s="2" t="s">
         <v>5</v>
@@ -5299,7 +5293,7 @@
       </c>
       <c r="U86" s="2"/>
       <c r="V86" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
@@ -5307,23 +5301,23 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K87" s="3"/>
       <c r="L87" s="2"/>
@@ -5332,7 +5326,7 @@
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
       <c r="U87" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V87" s="2"/>
     </row>
@@ -5341,20 +5335,20 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H88" s="2">
         <v>38</v>
@@ -5363,10 +5357,10 @@
         <v>38</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L88" s="2"/>
       <c r="O88" s="2"/>
@@ -5379,7 +5373,7 @@
       </c>
       <c r="U88" s="2"/>
       <c r="V88" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
@@ -5387,28 +5381,28 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L89" s="2"/>
       <c r="N89" t="s">
@@ -5424,7 +5418,7 @@
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
       <c r="U89" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="V89" s="2"/>
     </row>
@@ -5433,28 +5427,28 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L90" s="2"/>
       <c r="O90" s="2"/>
@@ -5464,7 +5458,7 @@
       </c>
       <c r="T90" s="2"/>
       <c r="U90" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V90" s="2"/>
     </row>
@@ -5473,28 +5467,28 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L91" s="3"/>
       <c r="O91" s="2"/>
@@ -5507,7 +5501,7 @@
       </c>
       <c r="U91" s="2"/>
       <c r="V91" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/NTDS_Utrecht.xlsx
+++ b/NTDS_Utrecht.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="615" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="1815" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="311">
   <si>
     <t>Nr.</t>
   </si>
@@ -1350,8 +1350,8 @@
   <dimension ref="A1:W201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:W91"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M90" sqref="M90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1564,7 +1564,9 @@
       <c r="K4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="5"/>
+      <c r="L4" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="M4" s="5"/>
       <c r="O4" s="5" t="s">
         <v>28</v>
@@ -1648,9 +1650,7 @@
       <c r="G6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="5">
-        <v>13</v>
-      </c>
+      <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="4" t="s">
         <v>41</v>
@@ -1847,7 +1847,9 @@
         <v>27</v>
       </c>
       <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="M10" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="O10" s="5" t="s">
         <v>29</v>
       </c>
@@ -2026,9 +2028,7 @@
       <c r="G14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="5">
-        <v>5</v>
-      </c>
+      <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="4" t="s">
         <v>27</v>
@@ -2037,7 +2037,9 @@
         <v>27</v>
       </c>
       <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="M14" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="O14" s="5" t="s">
         <v>29</v>
       </c>
@@ -2737,14 +2739,14 @@
         <v>41</v>
       </c>
       <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
+      <c r="M29" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="O29" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q29" s="5"/>
-      <c r="S29" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="S29" s="4"/>
       <c r="T29" s="2" t="s">
         <v>28</v>
       </c>
@@ -3256,12 +3258,8 @@
       <c r="K40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L40" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
       <c r="O40" s="5"/>
       <c r="Q40" s="5"/>
       <c r="S40" s="5"/>
@@ -3763,7 +3761,9 @@
         <v>41</v>
       </c>
       <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
+      <c r="M51" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="O51" s="5"/>
       <c r="Q51" s="5"/>
       <c r="S51" s="5"/>
@@ -4419,7 +4419,9 @@
         <v>41</v>
       </c>
       <c r="K65" s="4"/>
-      <c r="L65" s="5"/>
+      <c r="L65" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="M65" s="5"/>
       <c r="O65" s="5"/>
       <c r="Q65" s="5"/>
@@ -5510,7 +5512,12 @@
       <c r="K89" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L89" s="5"/>
+      <c r="L89" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="N89" s="2" t="s">
         <v>28</v>
       </c>
@@ -6226,7 +6233,7 @@
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="str">
-        <f t="shared" ref="A194:A225" si="6">IF(B194&lt;&gt;"",ROW(A194)-1,"")</f>
+        <f t="shared" ref="A194:A201" si="6">IF(B194&lt;&gt;"",ROW(A194)-1,"")</f>
         <v/>
       </c>
     </row>
